--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_7_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_7_sawtooth_05_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.01000000000016</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001323678120923599</v>
+        <v>1.319934592181049e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003950779384140776</v>
+        <v>2.838834339187445e-05</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.695806814990604</v>
+        <v>5.200072658106935</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.7988789712210895, 7.5927346587601185]</t>
+          <t>[2.6910732551797727, 7.709072061034097]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.001555445389366472</v>
+        <v>5.599489521146417e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001555445389366472</v>
+        <v>0.0001119897904229283</v>
       </c>
       <c r="O2" t="n">
         <v>-1.157263359880925</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.7987897876410024, -0.5157369321208467]</t>
+          <t>[-1.6855792415656943, -0.6289474781961548]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004383977381228199</v>
+        <v>2.108583131210651e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0004383977381228199</v>
+        <v>4.217166262421301e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>11.88781036320932</v>
+        <v>11.47659430448781</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.350729949332624, 13.424890777086006]</t>
+          <t>[10.107992554409417, 12.845196054566209]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.238078078078107</v>
+        <v>4.195715715715739</v>
       </c>
       <c r="X2" t="n">
-        <v>1.888708708708722</v>
+        <v>2.280280280280294</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.587447447447492</v>
+        <v>6.111151151151184</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.17000000000034</v>
+        <v>24.22000000000035</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.370694993980571e-06</v>
+        <v>0.0005084099697493238</v>
       </c>
       <c r="H3" t="n">
-        <v>3.722761395988862e-05</v>
+        <v>0.001769037968785438</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.20727299588145</v>
+        <v>5.03220610686169</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.4156608382955955, 8.998885153467304]</t>
+          <t>[2.054394084207873, 8.010018129515506]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.69324556646977e-05</v>
+        <v>0.0009955938694530264</v>
       </c>
       <c r="N3" t="n">
-        <v>3.38649113293954e-05</v>
+        <v>0.0009955938694530264</v>
       </c>
       <c r="O3" t="n">
         <v>1.478026573760964</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.9245527929483472, 2.0315003545735806]</t>
+          <t>[0.723289599925578, 2.23276354759635]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.886064378593289e-07</v>
+        <v>0.0001432777040062394</v>
       </c>
       <c r="R3" t="n">
-        <v>5.772128757186579e-07</v>
+        <v>0.0001432777040062394</v>
       </c>
       <c r="S3" t="n">
-        <v>11.16527377751172</v>
+        <v>12.19574729301942</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.505780594592926, 12.82476696043051]</t>
+          <t>[10.423711658361967, 13.967782927676872]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.48436436436462</v>
+        <v>18.52260260260287</v>
       </c>
       <c r="X3" t="n">
-        <v>16.3552752752755</v>
+        <v>15.61329329329351</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.61345345345374</v>
+        <v>21.43191191191222</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_7_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_7_sawtooth_05_.xlsx
@@ -571,53 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.78000000000012</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.319934592181049e-06</v>
+        <v>0.0001743529060090898</v>
       </c>
       <c r="H2" t="n">
-        <v>2.838834339187445e-05</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>0.0006159637004861848</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.113257708240667e-08</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.200072658106935</v>
+        <v>4.377156071343583</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.6910732551797727, 7.709072061034097]</t>
+          <t>[1.923773728740743, 6.830538413946423]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.599489521146417e-05</v>
+        <v>0.0005054360448304429</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0001119897904229283</v>
+        <v>0.0005054360448304429</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.157263359880925</v>
+        <v>-1.358526552903694</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.6855792415656943, -0.6289474781961548]</t>
+          <t>[-2.0252108797916177, -0.69184222601577]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.108583131210651e-05</v>
+        <v>7.408902462735512e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>4.217166262421301e-05</v>
+        <v>7.408902462735512e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>11.47659430448781</v>
+        <v>11.77021432553433</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.107992554409417, 12.845196054566209]</t>
+          <t>[10.317064286447726, 13.223364364620926]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.195715715715739</v>
+        <v>4.951351351351381</v>
       </c>
       <c r="X2" t="n">
-        <v>2.280280280280294</v>
+        <v>2.521521521521537</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.111151151151184</v>
+        <v>7.381181181181224</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.22000000000035</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0005084099697493238</v>
+        <v>1.769177479438167e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001769037968785438</v>
+        <v>0.0002463630700323948</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.03220610686169</v>
+        <v>5.673330454878864</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.054394084207873, 8.010018129515506]</t>
+          <t>[2.7317433810146703, 8.614917528743058]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0009955938694530264</v>
+        <v>0.0001795061551852495</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0009955938694530264</v>
+        <v>0.000359012310370499</v>
       </c>
       <c r="O3" t="n">
-        <v>1.478026573760964</v>
+        <v>1.301921279866041</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.723289599925578, 2.23276354759635]</t>
+          <t>[0.7107106503616549, 1.8931319093704264]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001432777040062394</v>
+        <v>2.028001525822276e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0001432777040062394</v>
+        <v>4.056003051644552e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>12.19574729301942</v>
+        <v>11.47895154074335</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.423711658361967, 13.967782927676872]</t>
+          <t>[9.825422852127662, 13.132480229359043]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.52260260260287</v>
+        <v>19.17765765765793</v>
       </c>
       <c r="X3" t="n">
-        <v>15.61329329329351</v>
+        <v>16.90152152152176</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.43191191191222</v>
+        <v>21.4537937937941</v>
       </c>
     </row>
   </sheetData>
